--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PNT-VM\pnt\github\yoga-suit\kw-rank\keyword\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\yoga-suit\kw-rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FC889C-500F-4831-94C1-786996641539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="B08L79DT42" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>blue tight</t>
   </si>
@@ -55,44 +54,23 @@
   </si>
   <si>
     <t>2 piece set woman</t>
-  </si>
-  <si>
-    <t>soft legging</t>
-  </si>
-  <si>
-    <t>soft top</t>
-  </si>
-  <si>
-    <t>black pant</t>
-  </si>
-  <si>
-    <t>seamless crop top workout</t>
-  </si>
-  <si>
-    <t>high yoga</t>
-  </si>
-  <si>
-    <t>yoga outfit seamless 2</t>
-  </si>
-  <si>
-    <t>seamless set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -399,98 +377,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A11" sqref="A11:A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,29 +5,272 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\kw-rank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\GitHub\indexed\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12405"/>
   </bookViews>
   <sheets>
-    <sheet name="B08CS8YFK5" sheetId="1" r:id="rId1"/>
+    <sheet name="B08CS6WSN4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>basketball with design</t>
-  </si>
-  <si>
-    <t>yoga knee</t>
-  </si>
-  <si>
-    <t>basketball skins</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>compression knee leggings</t>
+  </si>
+  <si>
+    <t>compression knee pants</t>
+  </si>
+  <si>
+    <t>youth capri compression tights</t>
+  </si>
+  <si>
+    <t>youth boys knee pads for basketball</t>
+  </si>
+  <si>
+    <t>padded basketball tights</t>
+  </si>
+  <si>
+    <t>leggings for men with knee pads</t>
+  </si>
+  <si>
+    <t>knee pad basketball leggings</t>
+  </si>
+  <si>
+    <t>kids basketball leggings with knee pads</t>
+  </si>
+  <si>
+    <t>compression pants with knee pads boys</t>
+  </si>
+  <si>
+    <t>compression leggings knee pads</t>
+  </si>
+  <si>
+    <t>basketball tights with pads for boys</t>
+  </si>
+  <si>
+    <t>basketball compression pants with padded knees</t>
+  </si>
+  <si>
+    <t>padded compression pants men</t>
+  </si>
+  <si>
+    <t>compression pants with pads basketball</t>
+  </si>
+  <si>
+    <t>knee pad tights</t>
+  </si>
+  <si>
+    <t>girls basketball knee pad leggings</t>
+  </si>
+  <si>
+    <t>padded compression pants</t>
+  </si>
+  <si>
+    <t>youth basketball compression leggings with knee pads</t>
+  </si>
+  <si>
+    <t>basket ball pants</t>
+  </si>
+  <si>
+    <t>knee pads for youth basketball</t>
+  </si>
+  <si>
+    <t>basketball pants</t>
+  </si>
+  <si>
+    <t>green basketball knee pads</t>
+  </si>
+  <si>
+    <t>youth boys basketball knee pads</t>
+  </si>
+  <si>
+    <t>compression pants pads</t>
+  </si>
+  <si>
+    <t>basketball tights for girls</t>
+  </si>
+  <si>
+    <t>youth compression knee pads</t>
+  </si>
+  <si>
+    <t>youth padded tights</t>
+  </si>
+  <si>
+    <t>knee pad for basketball youth</t>
+  </si>
+  <si>
+    <t>rodilleras basketball</t>
+  </si>
+  <si>
+    <t>padded compression tights basketball</t>
+  </si>
+  <si>
+    <t>kids compression knee pads</t>
+  </si>
+  <si>
+    <t>work pants for men with knee pad</t>
+  </si>
+  <si>
+    <t>basket ball knee pads youth</t>
+  </si>
+  <si>
+    <t>padded pants for basketball</t>
+  </si>
+  <si>
+    <t>pad tights</t>
+  </si>
+  <si>
+    <t>basketball tights with knee pads youth boys</t>
+  </si>
+  <si>
+    <t>compression knee padded</t>
+  </si>
+  <si>
+    <t>boys basketball compression pants with knee pads</t>
+  </si>
+  <si>
+    <t>compression shorts with knee pads</t>
+  </si>
+  <si>
+    <t>compression pants basketball kids</t>
+  </si>
+  <si>
+    <t>basketball knee pad leggings</t>
+  </si>
+  <si>
+    <t>padded tights for basketball</t>
+  </si>
+  <si>
+    <t>basketball leg tights</t>
+  </si>
+  <si>
+    <t>leggings for basketball youth</t>
+  </si>
+  <si>
+    <t>tights with knee pads</t>
+  </si>
+  <si>
+    <t>knee padded compression</t>
+  </si>
+  <si>
+    <t>kneepad tights</t>
+  </si>
+  <si>
+    <t>basketball leggings with kneepads</t>
+  </si>
+  <si>
+    <t>basketball knee pads leggings</t>
+  </si>
+  <si>
+    <t>knee pad pants basketball</t>
+  </si>
+  <si>
+    <t>basketball pants youth</t>
+  </si>
+  <si>
+    <t>boys knee pad tights</t>
+  </si>
+  <si>
+    <t>kids basketball compression knee pads</t>
+  </si>
+  <si>
+    <t>compression knee pads youth</t>
+  </si>
+  <si>
+    <t>basketball knee pad pants</t>
+  </si>
+  <si>
+    <t>basketball compression pants girls</t>
+  </si>
+  <si>
+    <t>soccer knee pads youth</t>
+  </si>
+  <si>
+    <t>pants with knee pads kids</t>
+  </si>
+  <si>
+    <t>padded knee pants</t>
+  </si>
+  <si>
+    <t>basketball youth compression pants</t>
+  </si>
+  <si>
+    <t>padded basketball leggings for boys</t>
+  </si>
+  <si>
+    <t>padded knee basketball</t>
+  </si>
+  <si>
+    <t>basketball green knee pads</t>
+  </si>
+  <si>
+    <t>basketball conpression pants</t>
+  </si>
+  <si>
+    <t>basketball compression pants knee pads</t>
+  </si>
+  <si>
+    <t>youth basketball knee pads small</t>
+  </si>
+  <si>
+    <t>boys padded compression pants</t>
+  </si>
+  <si>
+    <t>padded knee pads for basketball</t>
+  </si>
+  <si>
+    <t>basketball shorts with knee pads</t>
+  </si>
+  <si>
+    <t>basketball compression knee pads for kids</t>
+  </si>
+  <si>
+    <t>knee pads for basketball youth boys</t>
+  </si>
+  <si>
+    <t>compression knee pads for basketball for kids</t>
+  </si>
+  <si>
+    <t>compression pants padded knees basketball</t>
+  </si>
+  <si>
+    <t>compression basketball pants youth</t>
+  </si>
+  <si>
+    <t>basketball tights with knee pads for men</t>
+  </si>
+  <si>
+    <t>youth padded compression pants basketball</t>
+  </si>
+  <si>
+    <t>youth knee pads for basketball</t>
+  </si>
+  <si>
+    <t>knee pad leggings for basketball</t>
+  </si>
+  <si>
+    <t>basketball leggings with knee pads</t>
+  </si>
+  <si>
+    <t>basketball leggins with knee pads</t>
+  </si>
+  <si>
+    <t>mens basketball knee pads</t>
+  </si>
+  <si>
+    <t>kids basketball knee pads youth</t>
+  </si>
+  <si>
+    <t>tights with knee pads basketball</t>
+  </si>
+  <si>
+    <t>padded knee compression</t>
   </si>
 </sst>
 </file>
@@ -374,27 +617,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD100"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
